--- a/rrg_data updated13-25.xlsx
+++ b/rrg_data updated13-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsha.1Aditya\Documents\GitHub\factor_rrg_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB4ADBCD-BCA1-4303-8FE6-AAE861AD6492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AAAEEE-012A-440F-AB6D-42A9B53552E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5287B189-A303-4FF7-9E49-9BBBA60BB8DE}"/>
   </bookViews>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03FC6F9-5902-46E4-B62E-F687B7364F37}">
-  <dimension ref="A1:F3087"/>
+  <dimension ref="A1:F3097"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A3085" workbookViewId="0">
+      <selection activeCell="H3094" sqref="H3094"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -62180,6 +62180,206 @@
         <v>24812.05</v>
       </c>
     </row>
+    <row r="3088" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3088" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B3088">
+        <v>19723.95</v>
+      </c>
+      <c r="C3088">
+        <v>30975.45</v>
+      </c>
+      <c r="D3088">
+        <v>5579.1</v>
+      </c>
+      <c r="E3088">
+        <v>12802.85</v>
+      </c>
+      <c r="F3088">
+        <v>24793.25</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3089" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B3089">
+        <v>19874.55</v>
+      </c>
+      <c r="C3089">
+        <v>31506.45</v>
+      </c>
+      <c r="D3089">
+        <v>5623.05</v>
+      </c>
+      <c r="E3089">
+        <v>12902.65</v>
+      </c>
+      <c r="F3089">
+        <v>25112.400000000001</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3090" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B3090">
+        <v>19734.2</v>
+      </c>
+      <c r="C3090">
+        <v>31529.599999999999</v>
+      </c>
+      <c r="D3090">
+        <v>5595.3</v>
+      </c>
+      <c r="E3090">
+        <v>12778.85</v>
+      </c>
+      <c r="F3090">
+        <v>24971.9</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3091" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B3091">
+        <v>19820.95</v>
+      </c>
+      <c r="C3091">
+        <v>31542.6</v>
+      </c>
+      <c r="D3091">
+        <v>5605.7</v>
+      </c>
+      <c r="E3091">
+        <v>12782.9</v>
+      </c>
+      <c r="F3091">
+        <v>25044.35</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3092" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B3092">
+        <v>19997.150000000001</v>
+      </c>
+      <c r="C3092">
+        <v>31732.15</v>
+      </c>
+      <c r="D3092">
+        <v>5634.7</v>
+      </c>
+      <c r="E3092">
+        <v>12892</v>
+      </c>
+      <c r="F3092">
+        <v>25244.75</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3093" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B3093">
+        <v>20141.650000000001</v>
+      </c>
+      <c r="C3093">
+        <v>31899.35</v>
+      </c>
+      <c r="D3093">
+        <v>5659.25</v>
+      </c>
+      <c r="E3093">
+        <v>12959.15</v>
+      </c>
+      <c r="F3093">
+        <v>25549</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3094" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B3094">
+        <v>20238.150000000001</v>
+      </c>
+      <c r="C3094">
+        <v>31852.15</v>
+      </c>
+      <c r="D3094">
+        <v>5673.4</v>
+      </c>
+      <c r="E3094">
+        <v>12992.9</v>
+      </c>
+      <c r="F3094">
+        <v>25637.8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3095" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B3095">
+        <v>20165.75</v>
+      </c>
+      <c r="C3095">
+        <v>31901.15</v>
+      </c>
+      <c r="D3095">
+        <v>5666.5</v>
+      </c>
+      <c r="E3095">
+        <v>12961.45</v>
+      </c>
+      <c r="F3095">
+        <v>25517.05</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3096" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B3096">
+        <v>20176.849999999999</v>
+      </c>
+      <c r="C3096">
+        <v>31912</v>
+      </c>
+      <c r="D3096">
+        <v>5654.4</v>
+      </c>
+      <c r="E3096">
+        <v>12920.55</v>
+      </c>
+      <c r="F3096">
+        <v>25541.8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3097" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B3097">
+        <v>20166.7</v>
+      </c>
+      <c r="C3097">
+        <v>31722.7</v>
+      </c>
+      <c r="D3097">
+        <v>5654.4</v>
+      </c>
+      <c r="E3097">
+        <v>12898.85</v>
+      </c>
+      <c r="F3097">
+        <v>25453.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
